--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -51,10 +51,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
   <si>
     <t>Confidential</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>【変更履歴】</t>
@@ -64,14 +64,14 @@
     <rPh sb="3" eb="5">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>版</t>
     <rPh sb="0" eb="1">
       <t>ハン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -81,7 +81,7 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>改訂日</t>
@@ -91,7 +91,7 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>改訂者</t>
@@ -101,7 +101,7 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>設計書名</t>
@@ -111,21 +111,21 @@
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>改訂日</t>
@@ -135,7 +135,7 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>改訂者</t>
@@ -145,43 +145,43 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>必須</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>0.0.1</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>柴</t>
     <rPh sb="0" eb="1">
       <t>シバ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>■ 概要</t>
     <rPh sb="2" eb="4">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>■使用画面</t>
@@ -191,18 +191,18 @@
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>画面名</t>
@@ -212,27 +212,27 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>■ リクエスト</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>■ エンドポイント</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エンドポイント</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>HTTPメソッド</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>項目名(英名)</t>
@@ -245,7 +245,7 @@
     <rPh sb="4" eb="6">
       <t>エイメイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>項目名(和名)</t>
@@ -258,45 +258,45 @@
     <rPh sb="4" eb="6">
       <t>ワメイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Java型</t>
     <rPh sb="4" eb="5">
       <t>ガタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>BigDecimal</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>List&lt;?&gt;</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>JSON型</t>
     <rPh sb="4" eb="5">
       <t>ガタ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>LocalDate</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Number</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>■ レスポンス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>初版作成</t>
@@ -309,30 +309,30 @@
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
     <t>・body</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Boolean</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Array</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・body</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・クエリパラメータ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・以下の画面でAPIを使用する</t>
@@ -345,18 +345,18 @@
     <rPh sb="11" eb="13">
       <t>シヨウスル</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Ref_002</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
     <t>HI-04-01</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>トークテーマ詳細画面</t>
@@ -366,26 +366,26 @@
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>isSuccess</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>成功フラグ</t>
     <rPh sb="0" eb="2">
       <t>セイコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Boolean</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>・トークテーマの投稿を行う</t>
@@ -395,7 +395,7 @@
     <rPh sb="11" eb="12">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -407,51 +407,102 @@
         <color theme="1"/>
         <rFont val="メイリオ"/>
         <family val="2"/>
-        <charset val="128"/>
+        <charset val="129"/>
       </rPr>
       <t>comment</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Ref_003</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>中村</t>
     <rPh sb="0" eb="2">
       <t>ナカムラ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>message</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>メッセージ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>talkThemeId</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>トークテーマID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>0.0.2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リクエストから登録日時を削除。コメントの内容をレスポンスに追加。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
       <t>トークテーマの評価が成功したか</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（成功したら他のユーザのコメントも追加されているかもしれないので一覧取得を再度実行する？）</t>
     </r>
     <r>
       <rPr>
@@ -465,74 +516,7 @@
 True:成功(HTTPステータス:200)
 False:失敗(HTTPステータス:400)</t>
     </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>コメント</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>userName</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>createDatetime</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>登録日時</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクニチジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>LocalDateTime</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>talkThemeId</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>トークテーマID</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>コメント</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -552,6 +536,13 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
@@ -665,12 +656,6 @@
       <sz val="11"/>
       <name val="メイリオ"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="メイリオ"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -865,340 +850,357 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="31">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
@@ -1206,6 +1208,13 @@
     <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
@@ -1216,6 +1225,13 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1255,7 +1271,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1290,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1339,7 +1355,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1404,7 +1420,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1469,7 +1485,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1534,7 +1550,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1599,7 +1615,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1664,7 +1680,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1736,7 +1752,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1808,7 +1824,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1880,7 +1896,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1952,7 +1968,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2024,7 +2040,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2117,7 +2133,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2152,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2201,7 +2217,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2266,7 +2282,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2331,7 +2347,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2396,7 +2412,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2461,7 +2477,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2526,7 +2542,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2598,7 +2614,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2670,7 +2686,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2742,7 +2758,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2814,7 +2830,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2886,7 +2902,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2979,7 +2995,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,7 +3014,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3063,7 +3079,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3128,7 +3144,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3193,7 +3209,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3258,7 +3274,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3323,7 +3339,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3388,7 +3404,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3460,7 +3476,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3532,7 +3548,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3604,7 +3620,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3676,7 +3692,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3748,7 +3764,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4159,30 +4175,30 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4242,33 +4258,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="48">
+      <c r="AO27" s="72">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43472</v>
-      </c>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="49"/>
-      <c r="AU27" s="49"/>
-      <c r="AV27" s="49"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="49"/>
-      <c r="AY27" s="49"/>
+        <v>43479</v>
+      </c>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="73"/>
+      <c r="AS27" s="73"/>
+      <c r="AT27" s="73"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="73"/>
+      <c r="AW27" s="73"/>
+      <c r="AX27" s="73"/>
+      <c r="AY27" s="73"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="50" t="str">
+      <c r="AR28" s="74" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.1</v>
-      </c>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="50"/>
-      <c r="AV28" s="50"/>
-      <c r="AW28" s="50"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="50"/>
+        <v>0.0.2</v>
+      </c>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4280,7 +4296,7 @@
     <mergeCell ref="AR28:AY28"/>
     <mergeCell ref="C13:Z13"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape"/>
   <extLst>
@@ -4298,7 +4314,9 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -4312,7 +4330,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="64"/>
+      <c r="A1" s="49"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4361,10 +4379,18 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="106">
+        <v>43479</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="25"/>
@@ -4481,7 +4507,7 @@
       <c r="E25" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape"/>
   <extLst>
@@ -4606,14 +4632,14 @@
       <c r="AH11" s="19"/>
     </row>
     <row r="12" spans="2:81" ht="19">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="63" t="s">
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="48" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="13"/>
@@ -4737,7 +4763,7 @@
   <mergeCells count="1">
     <mergeCell ref="C12:G12"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
@@ -4759,11 +4785,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CC17"/>
+  <dimension ref="A1:CC16"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15:AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4776,7 +4802,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="6.75" customHeight="1">
-      <c r="A1" s="105"/>
+      <c r="A1" s="71"/>
     </row>
     <row r="2" spans="1:81">
       <c r="BX2" s="31" t="s">
@@ -4903,56 +4929,56 @@
       </c>
     </row>
     <row r="9" spans="1:81">
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="101"/>
-      <c r="AM9" s="101"/>
-      <c r="AN9" s="101"/>
-      <c r="AO9" s="101"/>
-      <c r="AP9" s="101"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="101"/>
-      <c r="AS9" s="101"/>
-      <c r="AT9" s="101"/>
-      <c r="AU9" s="101"/>
-      <c r="AV9" s="101"/>
-      <c r="AW9" s="101"/>
-      <c r="AX9" s="102"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="84"/>
       <c r="BX9" s="30" t="s">
         <v>30</v>
       </c>
@@ -4980,11 +5006,11 @@
       </c>
     </row>
     <row r="12" spans="1:81" s="9" customFormat="1">
-      <c r="C12" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
+      <c r="C12" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="24" t="s">
         <v>26</v>
       </c>
@@ -5043,73 +5069,73 @@
       <c r="AW12" s="24"/>
       <c r="AX12" s="19"/>
       <c r="BW12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BZ12" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" s="9" customFormat="1">
+      <c r="C13" s="66">
+        <v>1</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="BZ12" s="9" t="s">
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:81" s="9" customFormat="1">
-      <c r="C13" s="84">
-        <v>1</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="76" t="s">
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="88"/>
-      <c r="AK13" s="88"/>
-      <c r="AL13" s="88"/>
-      <c r="AM13" s="88"/>
-      <c r="AN13" s="88"/>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="88"/>
-      <c r="AQ13" s="88"/>
-      <c r="AR13" s="88"/>
-      <c r="AS13" s="88"/>
-      <c r="AT13" s="88"/>
-      <c r="AU13" s="88"/>
-      <c r="AV13" s="88"/>
-      <c r="AW13" s="88"/>
-      <c r="AX13" s="88"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="97"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="97"/>
+      <c r="AO13" s="97"/>
+      <c r="AP13" s="97"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="97"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="97"/>
+      <c r="AW13" s="97"/>
+      <c r="AX13" s="97"/>
       <c r="BW13" s="9" t="s">
         <v>30</v>
       </c>
@@ -5118,66 +5144,66 @@
       </c>
     </row>
     <row r="14" spans="1:81" s="9" customFormat="1">
-      <c r="C14" s="89"/>
-      <c r="D14" s="90">
+      <c r="C14" s="69"/>
+      <c r="D14" s="70">
         <v>2</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="91" t="s">
+      <c r="E14" s="68"/>
+      <c r="F14" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="91" t="s">
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="76" t="s">
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AI14" s="94"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="96"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="95"/>
       <c r="BW14" s="9" t="s">
         <v>39</v>
       </c>
@@ -5186,13 +5212,13 @@
       </c>
     </row>
     <row r="15" spans="1:81" s="9" customFormat="1">
-      <c r="C15" s="70"/>
-      <c r="D15" s="71">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53">
         <v>4</v>
       </c>
-      <c r="E15" s="72"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
@@ -5200,8 +5226,8 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="68" t="s">
-        <v>62</v>
+      <c r="M15" s="50" t="s">
+        <v>61</v>
       </c>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
@@ -5209,43 +5235,43 @@
       <c r="Q15" s="36"/>
       <c r="R15" s="36"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="73" t="s">
+      <c r="T15" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="73" t="s">
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="76" t="s">
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="79"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="60"/>
+      <c r="AQ15" s="60"/>
+      <c r="AR15" s="60"/>
+      <c r="AS15" s="60"/>
+      <c r="AT15" s="60"/>
+      <c r="AU15" s="60"/>
+      <c r="AV15" s="60"/>
+      <c r="AW15" s="60"/>
+      <c r="AX15" s="61"/>
       <c r="BW15" s="9" t="s">
         <v>40</v>
       </c>
@@ -5254,13 +5280,13 @@
       </c>
     </row>
     <row r="16" spans="1:81" s="9" customFormat="1">
-      <c r="C16" s="70"/>
-      <c r="D16" s="71">
+      <c r="C16" s="62"/>
+      <c r="D16" s="53">
         <v>5</v>
       </c>
-      <c r="E16" s="72"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
@@ -5268,8 +5294,8 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="37"/>
-      <c r="M16" s="68" t="s">
-        <v>64</v>
+      <c r="M16" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
@@ -5277,114 +5303,59 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
       <c r="S16" s="37"/>
-      <c r="T16" s="73" t="s">
+      <c r="T16" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="73" t="s">
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="76" t="s">
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="78"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="79"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="60"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="60"/>
+      <c r="AP16" s="60"/>
+      <c r="AQ16" s="60"/>
+      <c r="AR16" s="60"/>
+      <c r="AS16" s="60"/>
+      <c r="AT16" s="60"/>
+      <c r="AU16" s="60"/>
+      <c r="AV16" s="60"/>
+      <c r="AW16" s="60"/>
+      <c r="AX16" s="61"/>
       <c r="BZ16" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:78" s="9" customFormat="1">
-      <c r="C17" s="80"/>
-      <c r="D17" s="71">
-        <v>6</v>
-      </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="79"/>
-      <c r="BZ17" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:Z13"/>
+    <mergeCell ref="AA13:AG13"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:Z14"/>
+    <mergeCell ref="AA14:AG14"/>
+    <mergeCell ref="AI14:AX14"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="AI9:AX9"/>
@@ -5392,20 +5363,10 @@
     <mergeCell ref="Z9:AF9"/>
     <mergeCell ref="S9:Y9"/>
     <mergeCell ref="L9:R9"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:Z14"/>
-    <mergeCell ref="AA14:AG14"/>
-    <mergeCell ref="AI14:AX14"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:Z13"/>
-    <mergeCell ref="AA13:AG13"/>
-    <mergeCell ref="AI13:AX13"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9 AH13:AH17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9 AH13:AH16">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5571,65 +5532,65 @@
         <v>1</v>
       </c>
       <c r="D9" s="47"/>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="60" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="62" t="s">
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62" t="s">
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="56" t="s">
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="55"/>
-      <c r="AX9" s="55"/>
-      <c r="BA9" s="69"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="104"/>
+      <c r="AV9" s="104"/>
+      <c r="AW9" s="104"/>
+      <c r="AX9" s="104"/>
+      <c r="BA9" s="51"/>
       <c r="BX9" s="38" t="s">
         <v>30</v>
       </c>
@@ -5642,62 +5603,62 @@
         <v>2</v>
       </c>
       <c r="D10" s="47"/>
-      <c r="E10" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="67" t="s">
+      <c r="E10" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="67" t="s">
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="65" t="s">
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="58"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="58"/>
-      <c r="AX10" s="59"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="99"/>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="99"/>
+      <c r="AX10" s="100"/>
       <c r="BX10" s="38" t="s">
         <v>39</v>
       </c>
@@ -5705,25 +5666,99 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="2:81">
+      <c r="C11" s="46">
+        <v>3</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="100"/>
+      <c r="BX11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA11" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="40" ht="19" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="AI11:AX11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:Y11"/>
+    <mergeCell ref="Z11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="E10:K10"/>
     <mergeCell ref="AI10:AX10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="S10:Y10"/>
     <mergeCell ref="AG9:AH9"/>
     <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="E10:K10"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH11">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB6707-EEAB-41CA-B9EC-B496FE01A47D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="3" r:id="rId2"/>
-    <sheet name="概要(トークテーマ評価)" sheetId="6" r:id="rId3"/>
+    <sheet name="概要(コメント投稿)" sheetId="6" r:id="rId3"/>
     <sheet name="リクエスト" sheetId="7" r:id="rId4"/>
     <sheet name="レスポンス" sheetId="8" r:id="rId5"/>
   </sheets>
@@ -19,15 +20,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">リクエスト!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">レスポンス!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(トークテーマ評価)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(トークテーマ評価)'!$A$1:$BV$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(コメント投稿)'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(コメント投稿)'!$A$1:$BV$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">リクエスト!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">レスポンス!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'概要(トークテーマ評価)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'概要(コメント投稿)'!$1:$4</definedName>
     <definedName name="改訂者">変更履歴!$E$5:$E$25</definedName>
     <definedName name="改訂日" localSheetId="3">[1]変更履歴!$D$5:$D$25</definedName>
     <definedName name="改訂日" localSheetId="4">[1]変更履歴!$D$5:$D$25</definedName>
@@ -38,20 +39,20 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="8"/>
@@ -348,10 +349,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Ref_002</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -385,16 +382,6 @@
   </si>
   <si>
     <t>Boolean</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・トークテーマの投稿を行う</t>
-    <rPh sb="8" eb="10">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -414,10 +401,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Ref_003</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>中村</t>
     <rPh sb="0" eb="2">
       <t>ナカムラ</t>
@@ -433,10 +416,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -453,10 +432,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -469,19 +444,11 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>talkThemeId</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>トークテーマID</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>コメント</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -518,18 +485,135 @@
     </r>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>・コメントの投稿を行う</t>
+    <rPh sb="6" eb="8">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>commentId</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コメントID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>userThumbnailUrl</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザサムネイルURL</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>postDatetime</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>投稿日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LocalDatetime</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Upd003</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログインしている場合のみ設定</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リクエスト
+・リクエストを1次元に修正
+レスポンス
+・コメントの項目を修正</t>
+    <rPh sb="14" eb="16">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;改訂日 &quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;バージョン &quot;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -807,48 +891,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -887,7 +929,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1034,12 +1076,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1053,7 +1089,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1064,34 +1127,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1115,6 +1151,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1140,39 +1203,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1188,16 +1218,34 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -1216,8 +1264,8 @@
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
@@ -1271,7 +1319,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,8 +1327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106455" y="116731"/>
-          <a:ext cx="22848796" cy="547601"/>
+          <a:off x="82643" y="120700"/>
+          <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
         </a:xfrm>
@@ -1290,7 +1338,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1355,7 +1403,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1420,7 +1468,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1485,7 +1533,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1550,7 +1598,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1615,7 +1663,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1680,7 +1728,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1734,7 +1782,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>Ref_003</a:t>
+              <a:t>Upd003</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1752,7 +1800,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1824,7 +1872,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1878,7 +1926,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>19年1月7日 月曜日</a:t>
+              <a:t>2019年1月7日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1896,7 +1944,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1968,7 +2016,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2040,7 +2088,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2133,7 +2181,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,8 +2189,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106455" y="116731"/>
-          <a:ext cx="22848796" cy="547601"/>
+          <a:off x="78440" y="127003"/>
+          <a:ext cx="16932090" cy="573748"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
         </a:xfrm>
@@ -2152,7 +2200,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2217,7 +2265,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2282,7 +2330,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2347,7 +2395,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2412,7 +2460,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2477,7 +2525,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2542,7 +2590,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2596,7 +2644,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>Ref_003</a:t>
+              <a:t>Upd003</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2614,7 +2662,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2686,7 +2734,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2740,7 +2788,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>18年1月7日 日曜日</a:t>
+              <a:t>2018年1月7日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2758,7 +2806,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2830,7 +2878,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2884,7 +2932,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2019年1月14日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2902,7 +2950,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2956,7 +3004,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2995,7 +3043,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,8 +3051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106455" y="116731"/>
-          <a:ext cx="22848796" cy="547601"/>
+          <a:off x="82643" y="120700"/>
+          <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
         </a:xfrm>
@@ -3014,7 +3062,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3079,7 +3127,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3144,7 +3192,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3209,7 +3257,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3274,7 +3322,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3339,7 +3387,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3404,7 +3452,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3458,7 +3506,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>Ref_002</a:t>
+              <a:t>Upd003</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3476,7 +3524,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3548,7 +3596,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3602,7 +3650,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>19年1月3日 木曜日</a:t>
+              <a:t>2019年1月3日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3620,7 +3668,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3692,7 +3740,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3746,7 +3794,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2019年1月14日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3764,7 +3812,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3818,7 +3866,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3838,7 +3886,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="変更履歴"/>
@@ -4146,15 +4194,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1"/>
@@ -4165,40 +4213,40 @@
     <row r="1" spans="1:26">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:26" ht="25">
+    <row r="2" spans="1:26" ht="24.75">
       <c r="B2" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="34">
+    <row r="10" spans="1:26" ht="35.25">
       <c r="C10" s="3" t="str">
         <f ca="1">SUBSTITUTE(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("]",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1),".xlsx","")</f>
         <v>【eternal】API仕様書_Upd003_コメント投稿</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4252,39 +4300,39 @@
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="2:51" ht="19">
+    <row r="22" spans="2:51" ht="19.5">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="72">
+      <c r="AO27" s="70">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43479</v>
       </c>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="73"/>
-      <c r="AX27" s="73"/>
-      <c r="AY27" s="73"/>
+      <c r="AP27" s="71"/>
+      <c r="AQ27" s="71"/>
+      <c r="AR27" s="71"/>
+      <c r="AS27" s="71"/>
+      <c r="AT27" s="71"/>
+      <c r="AU27" s="71"/>
+      <c r="AV27" s="71"/>
+      <c r="AW27" s="71"/>
+      <c r="AX27" s="71"/>
+      <c r="AY27" s="71"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="74" t="str">
+      <c r="AR28" s="72" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.2</v>
-      </c>
-      <c r="AS28" s="74"/>
-      <c r="AT28" s="74"/>
-      <c r="AU28" s="74"/>
-      <c r="AV28" s="74"/>
-      <c r="AW28" s="74"/>
-      <c r="AX28" s="74"/>
-      <c r="AY28" s="74"/>
+        <v>1.0.0</v>
+      </c>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+      <c r="AW28" s="72"/>
+      <c r="AX28" s="72"/>
+      <c r="AY28" s="72"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4298,7 +4346,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4308,17 +4356,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="29" customWidth="1"/>
@@ -4375,28 +4421,36 @@
         <v>43472</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="106">
+        <v>66</v>
+      </c>
+      <c r="D6" s="69">
         <v>43479</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75">
+      <c r="B7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="27">
+        <v>43479</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="25"/>
@@ -4509,7 +4563,7 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4519,18 +4573,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:CC17"/>
+  <dimension ref="B1:CC16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="0.875" style="9" customWidth="1"/>
     <col min="2" max="74" width="3.125" style="9" customWidth="1"/>
@@ -4562,7 +4616,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4572,7 +4626,7 @@
         <v>43472</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="CB3" s="11"/>
       <c r="CC3" s="10"/>
@@ -4585,193 +4639,193 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81">
-      <c r="B10" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:81" ht="19">
-      <c r="C11" s="23" t="s">
+    <row r="10" spans="2:81" ht="19.5">
+      <c r="C10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="23" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="19"/>
-    </row>
-    <row r="12" spans="2:81" ht="19">
-      <c r="C12" s="76" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="2:81" ht="19.5">
+      <c r="C11" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="14"/>
+    </row>
+    <row r="13" spans="2:81">
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:81">
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:81">
+      <c r="C15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="22"/>
+    </row>
+    <row r="16" spans="2:81">
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="14"/>
-    </row>
-    <row r="14" spans="2:81">
-      <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:81">
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:81">
-      <c r="C16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="22"/>
-    </row>
-    <row r="17" spans="3:34">
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="17"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4781,18 +4835,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15:AC15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="0.875" style="30" customWidth="1"/>
     <col min="2" max="74" width="3.125" style="30" customWidth="1"/>
@@ -4802,7 +4856,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="6.75" customHeight="1">
-      <c r="A1" s="71"/>
+      <c r="A1" s="107"/>
     </row>
     <row r="2" spans="1:81">
       <c r="BX2" s="31" t="s">
@@ -4826,7 +4880,7 @@
     </row>
     <row r="3" spans="1:81">
       <c r="BX3" s="31" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="BY3" s="30" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4836,10 +4890,14 @@
         <v>43107</v>
       </c>
       <c r="CA3" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="CB3" s="32">
+        <v>43479</v>
+      </c>
+      <c r="CC3" s="31" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1"/>
     <row r="6" spans="1:81">
@@ -4929,56 +4987,56 @@
       </c>
     </row>
     <row r="9" spans="1:81">
-      <c r="C9" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="84"/>
+      <c r="C9" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="91"/>
       <c r="BX9" s="30" t="s">
         <v>30</v>
       </c>
@@ -4986,7 +5044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:81" ht="19" customHeight="1">
+    <row r="10" spans="1:81" ht="18.95" customHeight="1">
       <c r="BX10" s="30" t="s">
         <v>39</v>
       </c>
@@ -5006,50 +5064,50 @@
       </c>
     </row>
     <row r="12" spans="1:81" s="9" customFormat="1">
-      <c r="C12" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="24" t="s">
+      <c r="C12" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24" t="s">
         <v>26</v>
       </c>
+      <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="18" t="s">
+      <c r="K12" s="19"/>
+      <c r="L12" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="M12" s="24"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="18" t="s">
+      <c r="R12" s="19"/>
+      <c r="S12" s="18" t="s">
         <v>32</v>
       </c>
+      <c r="T12" s="24"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
       <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="18" t="s">
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="18" t="s">
         <v>28</v>
       </c>
+      <c r="AA12" s="24"/>
       <c r="AB12" s="24"/>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24"/>
       <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="18" t="s">
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="33" t="s">
         <v>13</v>
       </c>
+      <c r="AH12" s="34"/>
       <c r="AI12" s="18" t="s">
         <v>12</v>
       </c>
@@ -5068,294 +5126,291 @@
       <c r="AV12" s="24"/>
       <c r="AW12" s="24"/>
       <c r="AX12" s="19"/>
-      <c r="BW12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BZ12" s="9" t="s">
-        <v>66</v>
+      <c r="BX12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="CA12" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:81" s="9" customFormat="1">
-      <c r="C13" s="66">
+      <c r="C13" s="15">
         <v>1</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="96" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="58" t="s">
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="81"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AX13" s="85"/>
+      <c r="BX13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="CA13" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" s="9" customFormat="1">
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="97"/>
-      <c r="BW13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="BZ13" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:81" s="9" customFormat="1">
-      <c r="C14" s="69"/>
-      <c r="D14" s="70">
-        <v>2</v>
-      </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB14" s="91"/>
-      <c r="AC14" s="91"/>
-      <c r="AD14" s="91"/>
-      <c r="AE14" s="91"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="94"/>
-      <c r="AK14" s="94"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="95"/>
-      <c r="BW14" s="9" t="s">
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="58"/>
+      <c r="BX14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BZ14" s="9" t="s">
+      <c r="CA14" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:81" s="9" customFormat="1">
-      <c r="C15" s="52"/>
-      <c r="D15" s="53">
-        <v>4</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="36" t="s">
-        <v>60</v>
-      </c>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="50" t="s">
-        <v>61</v>
-      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="36"/>
       <c r="N15" s="36"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="60"/>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="61"/>
-      <c r="BW15" s="9" t="s">
+      <c r="R15" s="37"/>
+      <c r="S15" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="58"/>
+      <c r="BX15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BZ15" s="9" t="s">
+      <c r="CA15" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:81" s="9" customFormat="1">
-      <c r="C16" s="62"/>
-      <c r="D16" s="53">
-        <v>5</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="60"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="60"/>
-      <c r="AP16" s="60"/>
-      <c r="AQ16" s="60"/>
-      <c r="AR16" s="60"/>
-      <c r="AS16" s="60"/>
-      <c r="AT16" s="60"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="60"/>
-      <c r="AW16" s="60"/>
-      <c r="AX16" s="61"/>
-      <c r="BZ16" s="9" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="30"/>
+      <c r="BG16" s="30"/>
+      <c r="BH16" s="30"/>
+      <c r="BI16" s="30"/>
+      <c r="BJ16" s="30"/>
+      <c r="BK16" s="30"/>
+      <c r="BL16" s="30"/>
+      <c r="BM16" s="30"/>
+      <c r="CA16" s="9" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:Z13"/>
-    <mergeCell ref="AA13:AG13"/>
-    <mergeCell ref="AI13:AX13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:Z14"/>
-    <mergeCell ref="AA14:AG14"/>
-    <mergeCell ref="AI14:AX14"/>
+  <mergeCells count="15">
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AG15:AH15"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="AI9:AX9"/>
@@ -5363,16 +5418,22 @@
     <mergeCell ref="Z9:AF9"/>
     <mergeCell ref="S9:Y9"/>
     <mergeCell ref="L9:R9"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="AG13:AH13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9 AH13:AH16">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9 AG13:AG15" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5382,8 +5443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC40"/>
@@ -5393,7 +5454,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="0.875" style="38" customWidth="1"/>
     <col min="2" max="74" width="3.125" style="38" customWidth="1"/>
@@ -5425,7 +5486,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="39" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="BY3" s="38" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -5437,8 +5498,12 @@
       <c r="CA3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="40"/>
-      <c r="CC3" s="39"/>
+      <c r="CB3" s="40">
+        <v>43479</v>
+      </c>
+      <c r="CC3" s="39" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
     <row r="6" spans="2:81">
@@ -5527,69 +5592,69 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:81" ht="55" customHeight="1">
+    <row r="9" spans="2:81" ht="54.95" customHeight="1">
       <c r="C9" s="46">
         <v>1</v>
       </c>
       <c r="D9" s="47"/>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="88" t="s">
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="T9" s="105"/>
-      <c r="U9" s="105"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="105"/>
-      <c r="X9" s="105"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="105"/>
-      <c r="AF9" s="105"/>
-      <c r="AG9" s="103" t="s">
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ9" s="104"/>
-      <c r="AK9" s="104"/>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="104"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="104"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="104"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="104"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="101"/>
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="101"/>
+      <c r="AN9" s="101"/>
+      <c r="AO9" s="101"/>
+      <c r="AP9" s="101"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="101"/>
+      <c r="AS9" s="101"/>
+      <c r="AT9" s="101"/>
+      <c r="AU9" s="101"/>
+      <c r="AV9" s="101"/>
+      <c r="AW9" s="101"/>
+      <c r="AX9" s="101"/>
       <c r="BA9" s="51"/>
       <c r="BX9" s="38" t="s">
         <v>30</v>
@@ -5599,66 +5664,66 @@
       </c>
     </row>
     <row r="10" spans="2:81">
-      <c r="C10" s="46">
+      <c r="C10" s="102">
         <v>2</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="101" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="99"/>
-      <c r="AW10" s="99"/>
-      <c r="AX10" s="100"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="95"/>
+      <c r="AU10" s="95"/>
+      <c r="AV10" s="95"/>
+      <c r="AW10" s="95"/>
+      <c r="AX10" s="96"/>
       <c r="BX10" s="38" t="s">
         <v>39</v>
       </c>
@@ -5667,66 +5732,66 @@
       </c>
     </row>
     <row r="11" spans="2:81">
-      <c r="C11" s="46">
+      <c r="C11" s="102">
         <v>3</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="87" t="s">
+      <c r="D11" s="103"/>
+      <c r="E11" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="101" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="99"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="99"/>
-      <c r="AU11" s="99"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="100"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" s="95"/>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="95"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="95"/>
+      <c r="AQ11" s="95"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="95"/>
+      <c r="AT11" s="95"/>
+      <c r="AU11" s="95"/>
+      <c r="AV11" s="95"/>
+      <c r="AW11" s="95"/>
+      <c r="AX11" s="96"/>
       <c r="BX11" s="38" t="s">
         <v>39</v>
       </c>
@@ -5734,37 +5799,357 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" ht="19" customHeight="1"/>
+    <row r="12" spans="2:81">
+      <c r="C12" s="104"/>
+      <c r="D12" s="106">
+        <v>1</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AX12" s="85"/>
+    </row>
+    <row r="13" spans="2:81">
+      <c r="C13" s="104"/>
+      <c r="D13" s="106">
+        <v>2</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
+      <c r="AM13" s="67"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="67"/>
+      <c r="AQ13" s="67"/>
+      <c r="AR13" s="67"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="67"/>
+      <c r="AU13" s="67"/>
+      <c r="AV13" s="67"/>
+      <c r="AW13" s="67"/>
+      <c r="AX13" s="68"/>
+    </row>
+    <row r="14" spans="2:81">
+      <c r="C14" s="104"/>
+      <c r="D14" s="106">
+        <v>3</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="67"/>
+      <c r="AR14" s="67"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="67"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="67"/>
+      <c r="AX14" s="68"/>
+    </row>
+    <row r="15" spans="2:81">
+      <c r="C15" s="104"/>
+      <c r="D15" s="106">
+        <v>4</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="67"/>
+      <c r="AM15" s="67"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="67"/>
+      <c r="AP15" s="67"/>
+      <c r="AQ15" s="67"/>
+      <c r="AR15" s="67"/>
+      <c r="AS15" s="67"/>
+      <c r="AT15" s="67"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="67"/>
+      <c r="AW15" s="67"/>
+      <c r="AX15" s="68"/>
+    </row>
+    <row r="16" spans="2:81">
+      <c r="C16" s="105"/>
+      <c r="D16" s="106">
+        <v>5</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="67"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="67"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="68"/>
+    </row>
+    <row r="40" ht="18.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="28">
+    <mergeCell ref="AI12:AX12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AI11:AX11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="Z11:AF11"/>
     <mergeCell ref="S11:Y11"/>
-    <mergeCell ref="Z11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AX9"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="L9:R9"/>
     <mergeCell ref="S9:Y9"/>
     <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="AI10:AX10"/>
+    <mergeCell ref="E10:K10"/>
     <mergeCell ref="L10:R10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="AI10:AX10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="Z10:AF10"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG12:AG16 AG9:AH9 AG10:AH11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB6707-EEAB-41CA-B9EC-B496FE01A47D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1E042-BDA3-4D62-855B-68F128057399}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -382,22 +382,6 @@
   </si>
   <si>
     <t>Boolean</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>hiima/api/internal/v1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>comment</t>
-    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -600,6 +584,22 @@
     <rPh sb="0" eb="1">
       <t>シバ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>hiima/api/internal/v1/postC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>omment</t>
+    </r>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1130,6 +1130,27 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1151,6 +1172,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1178,30 +1223,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1218,34 +1239,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -4223,30 +4223,30 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4306,33 +4306,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="70">
+      <c r="AO27" s="77">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43479</v>
       </c>
-      <c r="AP27" s="71"/>
-      <c r="AQ27" s="71"/>
-      <c r="AR27" s="71"/>
-      <c r="AS27" s="71"/>
-      <c r="AT27" s="71"/>
-      <c r="AU27" s="71"/>
-      <c r="AV27" s="71"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="71"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="78"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="78"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="78"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="72" t="str">
+      <c r="AR28" s="79" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
         <v>1.0.0</v>
       </c>
-      <c r="AS28" s="72"/>
-      <c r="AT28" s="72"/>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="72"/>
-      <c r="AW28" s="72"/>
-      <c r="AX28" s="72"/>
-      <c r="AY28" s="72"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4421,35 +4421,35 @@
         <v>43472</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="D6" s="69">
         <v>43479</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
       <c r="B7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="D7" s="27">
         <v>43479</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4616,7 +4616,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4626,7 +4626,7 @@
         <v>43472</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CB3" s="11"/>
       <c r="CC3" s="10"/>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:81">
@@ -4686,15 +4686,15 @@
       <c r="AH10" s="19"/>
     </row>
     <row r="11" spans="2:81" ht="19.5">
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="48" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -4856,7 +4856,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="6.75" customHeight="1">
-      <c r="A1" s="107"/>
+      <c r="A1" s="75"/>
     </row>
     <row r="2" spans="1:81">
       <c r="BX2" s="31" t="s">
@@ -4880,7 +4880,7 @@
     </row>
     <row r="3" spans="1:81">
       <c r="BX3" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BY3" s="30" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4890,13 +4890,13 @@
         <v>43107</v>
       </c>
       <c r="CA3" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CB3" s="32">
         <v>43479</v>
       </c>
       <c r="CC3" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1"/>
@@ -5019,8 +5019,8 @@
       <c r="AD9" s="87"/>
       <c r="AE9" s="87"/>
       <c r="AF9" s="88"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="93"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="85"/>
       <c r="AI9" s="89"/>
       <c r="AJ9" s="90"/>
       <c r="AK9" s="90"/>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="12" spans="1:81" s="9" customFormat="1">
       <c r="C12" s="59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="24" t="s">
@@ -5127,10 +5127,10 @@
       <c r="AW12" s="24"/>
       <c r="AX12" s="19"/>
       <c r="BX12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="CA12" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="CA12" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:81" s="9" customFormat="1">
@@ -5138,62 +5138,62 @@
         <v>1</v>
       </c>
       <c r="D13" s="52"/>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="80" t="s">
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="81"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="80" t="s">
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="83"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="85"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="99"/>
+      <c r="AT13" s="99"/>
+      <c r="AU13" s="99"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="100"/>
       <c r="BX13" s="9" t="s">
         <v>30</v>
       </c>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -5216,7 +5216,7 @@
       <c r="J14" s="36"/>
       <c r="K14" s="37"/>
       <c r="L14" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
@@ -5242,10 +5242,10 @@
       <c r="AD14" s="54"/>
       <c r="AE14" s="54"/>
       <c r="AF14" s="55"/>
-      <c r="AG14" s="92" t="s">
+      <c r="AG14" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AH14" s="93"/>
+      <c r="AH14" s="85"/>
       <c r="AI14" s="56"/>
       <c r="AJ14" s="57"/>
       <c r="AK14" s="57"/>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -5284,7 +5284,7 @@
       <c r="J15" s="36"/>
       <c r="K15" s="37"/>
       <c r="L15" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
@@ -5310,12 +5310,12 @@
       <c r="AD15" s="54"/>
       <c r="AE15" s="54"/>
       <c r="AF15" s="55"/>
-      <c r="AG15" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="108" t="s">
-        <v>84</v>
+      <c r="AG15" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="76" t="s">
+        <v>83</v>
       </c>
       <c r="AJ15" s="57"/>
       <c r="AK15" s="57"/>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BY3" s="38" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -5502,7 +5502,7 @@
         <v>43479</v>
       </c>
       <c r="CC3" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -5597,64 +5597,64 @@
         <v>1</v>
       </c>
       <c r="D9" s="47"/>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="77" t="s">
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="99" t="s">
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99" t="s">
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100" t="s">
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="108"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="101"/>
-      <c r="AM9" s="101"/>
-      <c r="AN9" s="101"/>
-      <c r="AO9" s="101"/>
-      <c r="AP9" s="101"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="101"/>
-      <c r="AS9" s="101"/>
-      <c r="AT9" s="101"/>
-      <c r="AU9" s="101"/>
-      <c r="AV9" s="101"/>
-      <c r="AW9" s="101"/>
-      <c r="AX9" s="101"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="107"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
       <c r="BA9" s="51"/>
       <c r="BX9" s="38" t="s">
         <v>30</v>
@@ -5664,66 +5664,66 @@
       </c>
     </row>
     <row r="10" spans="2:81">
-      <c r="C10" s="102">
+      <c r="C10" s="70">
         <v>2</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="79" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79" t="s">
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="95"/>
-      <c r="AL10" s="95"/>
-      <c r="AM10" s="95"/>
-      <c r="AN10" s="95"/>
-      <c r="AO10" s="95"/>
-      <c r="AP10" s="95"/>
-      <c r="AQ10" s="95"/>
-      <c r="AR10" s="95"/>
-      <c r="AS10" s="95"/>
-      <c r="AT10" s="95"/>
-      <c r="AU10" s="95"/>
-      <c r="AV10" s="95"/>
-      <c r="AW10" s="95"/>
-      <c r="AX10" s="96"/>
+      <c r="AH10" s="105"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="102"/>
+      <c r="AV10" s="102"/>
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="103"/>
       <c r="BX10" s="38" t="s">
         <v>39</v>
       </c>
@@ -5732,66 +5732,66 @@
       </c>
     </row>
     <row r="11" spans="2:81">
-      <c r="C11" s="102">
+      <c r="C11" s="70">
         <v>3</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="95"/>
-      <c r="AL11" s="95"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="95"/>
-      <c r="AO11" s="95"/>
-      <c r="AP11" s="95"/>
-      <c r="AQ11" s="95"/>
-      <c r="AR11" s="95"/>
-      <c r="AS11" s="95"/>
-      <c r="AT11" s="95"/>
-      <c r="AU11" s="95"/>
-      <c r="AV11" s="95"/>
-      <c r="AW11" s="95"/>
-      <c r="AX11" s="96"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="102"/>
+      <c r="AV11" s="102"/>
+      <c r="AW11" s="102"/>
+      <c r="AX11" s="103"/>
       <c r="BX11" s="38" t="s">
         <v>39</v>
       </c>
@@ -5800,74 +5800,74 @@
       </c>
     </row>
     <row r="12" spans="2:81">
-      <c r="C12" s="104"/>
-      <c r="D12" s="106">
+      <c r="C12" s="72"/>
+      <c r="D12" s="74">
         <v>1</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="80" t="s">
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="80" t="s">
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="92" t="s">
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="83"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="85"/>
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="100"/>
     </row>
     <row r="13" spans="2:81">
-      <c r="C13" s="104"/>
-      <c r="D13" s="106">
+      <c r="C13" s="72"/>
+      <c r="D13" s="74">
         <v>2</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="61"/>
@@ -5876,7 +5876,7 @@
       <c r="J13" s="61"/>
       <c r="K13" s="62"/>
       <c r="L13" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" s="61"/>
       <c r="N13" s="61"/>
@@ -5902,10 +5902,10 @@
       <c r="AD13" s="64"/>
       <c r="AE13" s="64"/>
       <c r="AF13" s="65"/>
-      <c r="AG13" s="92" t="s">
+      <c r="AG13" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AH13" s="93"/>
+      <c r="AH13" s="85"/>
       <c r="AI13" s="66"/>
       <c r="AJ13" s="67"/>
       <c r="AK13" s="67"/>
@@ -5924,12 +5924,12 @@
       <c r="AX13" s="68"/>
     </row>
     <row r="14" spans="2:81">
-      <c r="C14" s="104"/>
-      <c r="D14" s="106">
+      <c r="C14" s="72"/>
+      <c r="D14" s="74">
         <v>3</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="61"/>
       <c r="G14" s="61"/>
@@ -5938,7 +5938,7 @@
       <c r="J14" s="61"/>
       <c r="K14" s="62"/>
       <c r="L14" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="61"/>
       <c r="N14" s="61"/>
@@ -5964,10 +5964,10 @@
       <c r="AD14" s="64"/>
       <c r="AE14" s="64"/>
       <c r="AF14" s="65"/>
-      <c r="AG14" s="92" t="s">
+      <c r="AG14" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AH14" s="93"/>
+      <c r="AH14" s="85"/>
       <c r="AI14" s="66"/>
       <c r="AJ14" s="67"/>
       <c r="AK14" s="67"/>
@@ -5986,12 +5986,12 @@
       <c r="AX14" s="68"/>
     </row>
     <row r="15" spans="2:81">
-      <c r="C15" s="104"/>
-      <c r="D15" s="106">
+      <c r="C15" s="72"/>
+      <c r="D15" s="74">
         <v>4</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
@@ -6000,7 +6000,7 @@
       <c r="J15" s="61"/>
       <c r="K15" s="62"/>
       <c r="L15" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M15" s="61"/>
       <c r="N15" s="61"/>
@@ -6026,10 +6026,10 @@
       <c r="AD15" s="64"/>
       <c r="AE15" s="64"/>
       <c r="AF15" s="65"/>
-      <c r="AG15" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH15" s="93"/>
+      <c r="AG15" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH15" s="85"/>
       <c r="AI15" s="66"/>
       <c r="AJ15" s="67"/>
       <c r="AK15" s="67"/>
@@ -6048,12 +6048,12 @@
       <c r="AX15" s="68"/>
     </row>
     <row r="16" spans="2:81">
-      <c r="C16" s="105"/>
-      <c r="D16" s="106">
+      <c r="C16" s="73"/>
+      <c r="D16" s="74">
         <v>5</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="61"/>
@@ -6062,7 +6062,7 @@
       <c r="J16" s="61"/>
       <c r="K16" s="62"/>
       <c r="L16" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M16" s="61"/>
       <c r="N16" s="61"/>
@@ -6080,7 +6080,7 @@
       <c r="X16" s="64"/>
       <c r="Y16" s="65"/>
       <c r="Z16" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA16" s="64"/>
       <c r="AB16" s="64"/>
@@ -6088,10 +6088,10 @@
       <c r="AD16" s="64"/>
       <c r="AE16" s="64"/>
       <c r="AF16" s="65"/>
-      <c r="AG16" s="92" t="s">
+      <c r="AG16" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AH16" s="93"/>
+      <c r="AH16" s="85"/>
       <c r="AI16" s="66"/>
       <c r="AJ16" s="67"/>
       <c r="AK16" s="67"/>
@@ -6112,34 +6112,34 @@
     <row r="40" ht="18.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AI12:AX12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="AI11:AX11"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="Z11:AF11"/>
     <mergeCell ref="S11:Y11"/>
     <mergeCell ref="AG9:AH9"/>
     <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="E11:K11"/>
     <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AX12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D1E042-BDA3-4D62-855B-68F128057399}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA6E4D4-0B6A-4A66-AD91-EF102EDD55E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="27315" windowHeight="15360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">レスポンス!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(コメント投稿)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(コメント投稿)'!$A$1:$BV$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="8"/>
@@ -370,21 +370,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>isSuccess</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>成功フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>中村</t>
     <rPh sb="0" eb="2">
       <t>ナカムラ</t>
@@ -449,24 +434,6 @@
   </si>
   <si>
     <t>comment</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>トークテーマの評価が成功したか</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-True:成功(HTTPステータス:200)
-False:失敗(HTTPステータス:400)</t>
-    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -602,6 +569,57 @@
     </r>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーId</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>レスポンス
+・成功フラグの削除
+・トークテーマIDを追加
+・コメント.ユーザーIDを項目に追加</t>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>50文字以内でない場合はエラー</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -613,7 +631,7 @@
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +756,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -929,7 +954,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1060,12 +1085,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1088,6 +1107,57 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1097,18 +1167,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1127,102 +1239,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1238,14 +1254,50 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -2932,7 +2984,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2019年1月14日</a:t>
+              <a:t>2019年5月6日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3794,7 +3846,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2019年1月14日</a:t>
+              <a:t>2019年5月5日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -4223,30 +4275,30 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4306,33 +4358,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="77">
+      <c r="AO27" s="74">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43479</v>
-      </c>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="78"/>
-      <c r="AS27" s="78"/>
-      <c r="AT27" s="78"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="78"/>
+        <v>43590</v>
+      </c>
+      <c r="AP27" s="75"/>
+      <c r="AQ27" s="75"/>
+      <c r="AR27" s="75"/>
+      <c r="AS27" s="75"/>
+      <c r="AT27" s="75"/>
+      <c r="AU27" s="75"/>
+      <c r="AV27" s="75"/>
+      <c r="AW27" s="75"/>
+      <c r="AX27" s="75"/>
+      <c r="AY27" s="75"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="79" t="str">
+      <c r="AR28" s="76" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
+        <v>1.0.1</v>
+      </c>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4346,7 +4398,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4362,7 +4414,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -4376,7 +4428,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="49"/>
+      <c r="A1" s="47"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4421,42 +4473,50 @@
         <v>43472</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="69">
+        <v>62</v>
+      </c>
+      <c r="D6" s="57">
         <v>43479</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
       <c r="B7" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="27">
         <v>43479</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75">
+      <c r="B8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="27">
+        <v>43590</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="25"/>
@@ -4563,7 +4623,7 @@
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4579,7 +4639,7 @@
   </sheetPr>
   <dimension ref="B1:CC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4616,7 +4676,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4626,7 +4686,7 @@
         <v>43472</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="CB3" s="11"/>
       <c r="CC3" s="10"/>
@@ -4639,7 +4699,7 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:81">
@@ -4686,15 +4746,15 @@
       <c r="AH10" s="19"/>
     </row>
     <row r="11" spans="2:81" ht="19.5">
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="48" t="s">
-        <v>87</v>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -4824,7 +4884,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4856,7 +4916,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81" ht="6.75" customHeight="1">
-      <c r="A1" s="75"/>
+      <c r="A1" s="63"/>
     </row>
     <row r="2" spans="1:81">
       <c r="BX2" s="31" t="s">
@@ -4880,7 +4940,7 @@
     </row>
     <row r="3" spans="1:81">
       <c r="BX3" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="BY3" s="30" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4890,16 +4950,18 @@
         <v>43107</v>
       </c>
       <c r="CA3" s="31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="CB3" s="32">
-        <v>43479</v>
+        <v>43591</v>
       </c>
       <c r="CC3" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:81" ht="18" customHeight="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" ht="18" customHeight="1">
+      <c r="CB4" s="117"/>
+    </row>
     <row r="6" spans="1:81">
       <c r="B6" s="30" t="s">
         <v>21</v>
@@ -4987,56 +5049,56 @@
       </c>
     </row>
     <row r="9" spans="1:81">
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="91"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="81"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="88"/>
       <c r="BX9" s="30" t="s">
         <v>30</v>
       </c>
@@ -5064,8 +5126,8 @@
       </c>
     </row>
     <row r="12" spans="1:81" s="9" customFormat="1">
-      <c r="C12" s="59" t="s">
-        <v>58</v>
+      <c r="C12" s="56" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="24" t="s">
@@ -5127,73 +5189,73 @@
       <c r="AW12" s="24"/>
       <c r="AX12" s="19"/>
       <c r="BX12" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="CA12" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:81" s="9" customFormat="1">
       <c r="C13" s="15">
         <v>1</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="95" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="95" t="s">
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="99"/>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="99"/>
-      <c r="AS13" s="99"/>
-      <c r="AT13" s="99"/>
-      <c r="AU13" s="99"/>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="100"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="96"/>
+      <c r="AO13" s="96"/>
+      <c r="AP13" s="96"/>
+      <c r="AQ13" s="96"/>
+      <c r="AR13" s="96"/>
+      <c r="AS13" s="96"/>
+      <c r="AT13" s="96"/>
+      <c r="AU13" s="96"/>
+      <c r="AV13" s="96"/>
+      <c r="AW13" s="96"/>
+      <c r="AX13" s="97"/>
       <c r="BX13" s="9" t="s">
         <v>30</v>
       </c>
@@ -5205,9 +5267,9 @@
       <c r="C14" s="15">
         <v>2</v>
       </c>
-      <c r="D14" s="52"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -5215,8 +5277,8 @@
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="50" t="s">
-        <v>56</v>
+      <c r="L14" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
@@ -5224,44 +5286,46 @@
       <c r="P14" s="36"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="37"/>
-      <c r="S14" s="53" t="s">
+      <c r="S14" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="53" t="s">
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="84" t="s">
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="57"/>
-      <c r="AX14" s="58"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="55"/>
       <c r="BX14" s="9" t="s">
         <v>39</v>
       </c>
@@ -5273,9 +5337,9 @@
       <c r="C15" s="15">
         <v>3</v>
       </c>
-      <c r="D15" s="52"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -5283,8 +5347,8 @@
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="50" t="s">
-        <v>82</v>
+      <c r="L15" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
@@ -5292,46 +5356,46 @@
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="37"/>
-      <c r="S15" s="53" t="s">
+      <c r="S15" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="53" t="s">
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="58"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="55"/>
       <c r="BX15" s="9" t="s">
         <v>40</v>
       </c>
@@ -5432,7 +5496,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5447,7 +5511,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:CC40"/>
+  <dimension ref="B1:CC41"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -5486,7 +5550,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="BY3" s="38" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -5499,10 +5563,10 @@
         <v>15</v>
       </c>
       <c r="CB3" s="40">
-        <v>43479</v>
+        <v>43590</v>
       </c>
       <c r="CC3" s="39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -5592,70 +5656,68 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:81" ht="54.95" customHeight="1">
-      <c r="C9" s="46">
+    <row r="9" spans="2:81">
+      <c r="C9" s="58">
         <v>1</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="92" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="108" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="108"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH9" s="106"/>
-      <c r="AI9" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="107"/>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="107"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="BA9" s="51"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="100"/>
+      <c r="BA9" s="49"/>
       <c r="BX9" s="38" t="s">
         <v>30</v>
       </c>
@@ -5664,66 +5726,66 @@
       </c>
     </row>
     <row r="10" spans="2:81">
-      <c r="C10" s="70">
+      <c r="C10" s="112">
         <v>2</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="101"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="103"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="99"/>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="99"/>
+      <c r="AX10" s="100"/>
       <c r="BX10" s="38" t="s">
         <v>39</v>
       </c>
@@ -5732,66 +5794,66 @@
       </c>
     </row>
     <row r="11" spans="2:81">
-      <c r="C11" s="70">
+      <c r="C11" s="58">
         <v>3</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="94" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="101"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="102"/>
-      <c r="AT11" s="102"/>
-      <c r="AU11" s="102"/>
-      <c r="AV11" s="102"/>
-      <c r="AW11" s="102"/>
-      <c r="AX11" s="103"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="100"/>
       <c r="BX11" s="38" t="s">
         <v>39</v>
       </c>
@@ -5800,355 +5862,414 @@
       </c>
     </row>
     <row r="12" spans="2:81">
-      <c r="C12" s="72"/>
-      <c r="D12" s="74">
+      <c r="C12" s="60"/>
+      <c r="D12" s="62">
         <v>1</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="73"/>
+    </row>
+    <row r="13" spans="2:81">
+      <c r="C13" s="60"/>
+      <c r="D13" s="62">
+        <v>2</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="73"/>
+    </row>
+    <row r="14" spans="2:81">
+      <c r="C14" s="60"/>
+      <c r="D14" s="103">
+        <v>3</v>
+      </c>
+      <c r="E14" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="73"/>
+    </row>
+    <row r="15" spans="2:81">
+      <c r="C15" s="60"/>
+      <c r="D15" s="62">
+        <v>4</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="72"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="73"/>
+    </row>
+    <row r="16" spans="2:81">
+      <c r="C16" s="60"/>
+      <c r="D16" s="62">
+        <v>5</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="95" t="s">
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="99"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="99"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="100"/>
-    </row>
-    <row r="13" spans="2:81">
-      <c r="C13" s="72"/>
-      <c r="D13" s="74">
-        <v>2</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="63" t="s">
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="63" t="s">
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="69"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="73"/>
+    </row>
+    <row r="17" spans="3:50">
+      <c r="C17" s="61"/>
+      <c r="D17" s="62">
+        <v>6</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="67"/>
-      <c r="AX13" s="68"/>
-    </row>
-    <row r="14" spans="2:81">
-      <c r="C14" s="72"/>
-      <c r="D14" s="74">
-        <v>3</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="68"/>
-    </row>
-    <row r="15" spans="2:81">
-      <c r="C15" s="72"/>
-      <c r="D15" s="74">
-        <v>4</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="67"/>
-      <c r="AX15" s="68"/>
-    </row>
-    <row r="16" spans="2:81">
-      <c r="C16" s="73"/>
-      <c r="D16" s="74">
-        <v>5</v>
-      </c>
-      <c r="E16" s="61" t="s">
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="67"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="67"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="67"/>
-      <c r="AT16" s="67"/>
-      <c r="AU16" s="67"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="67"/>
-      <c r="AX16" s="68"/>
-    </row>
-    <row r="40" ht="18.95" customHeight="1"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="73"/>
+    </row>
+    <row r="41" ht="18.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="25">
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI11:AX11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="Z11:AF11"/>
+    <mergeCell ref="S11:Y11"/>
+    <mergeCell ref="AI9:AX9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AX10"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="E11:K11"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="L9:R9"/>
     <mergeCell ref="S9:Y9"/>
     <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="E11:K11"/>
     <mergeCell ref="E10:K10"/>
     <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="Z10:AF10"/>
-    <mergeCell ref="AI11:AX11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="Z11:AF11"/>
-    <mergeCell ref="S11:Y11"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AX12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG12:AG16 AG9:AH9 AG10:AH11" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG12:AG17 AG9:AH11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Upd003_コメント投稿.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA6E4D4-0B6A-4A66-AD91-EF102EDD55E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAB1525-F148-412F-BB21-F3151498A64F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,6 +43,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1167,6 +1172,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1239,6 +1274,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1247,57 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -4275,30 +4280,30 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4358,33 +4363,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="74">
+      <c r="AO27" s="84">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43590</v>
       </c>
-      <c r="AP27" s="75"/>
-      <c r="AQ27" s="75"/>
-      <c r="AR27" s="75"/>
-      <c r="AS27" s="75"/>
-      <c r="AT27" s="75"/>
-      <c r="AU27" s="75"/>
-      <c r="AV27" s="75"/>
-      <c r="AW27" s="75"/>
-      <c r="AX27" s="75"/>
-      <c r="AY27" s="75"/>
+      <c r="AP27" s="85"/>
+      <c r="AQ27" s="85"/>
+      <c r="AR27" s="85"/>
+      <c r="AS27" s="85"/>
+      <c r="AT27" s="85"/>
+      <c r="AU27" s="85"/>
+      <c r="AV27" s="85"/>
+      <c r="AW27" s="85"/>
+      <c r="AX27" s="85"/>
+      <c r="AY27" s="85"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="76" t="str">
+      <c r="AR28" s="86" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
         <v>1.0.1</v>
       </c>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="76"/>
-      <c r="AX28" s="76"/>
-      <c r="AY28" s="76"/>
+      <c r="AS28" s="86"/>
+      <c r="AT28" s="86"/>
+      <c r="AU28" s="86"/>
+      <c r="AV28" s="86"/>
+      <c r="AW28" s="86"/>
+      <c r="AX28" s="86"/>
+      <c r="AY28" s="86"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4746,13 +4751,13 @@
       <c r="AH10" s="19"/>
     </row>
     <row r="11" spans="2:81" ht="19.5">
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="46" t="s">
         <v>83</v>
       </c>
@@ -4960,7 +4965,7 @@
       </c>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1">
-      <c r="CB4" s="117"/>
+      <c r="CB4" s="83"/>
     </row>
     <row r="6" spans="1:81">
       <c r="B6" s="30" t="s">
@@ -5049,56 +5054,56 @@
       </c>
     </row>
     <row r="9" spans="1:81">
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="81"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="88"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="96"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="97"/>
+      <c r="AP9" s="97"/>
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="97"/>
+      <c r="AT9" s="97"/>
+      <c r="AU9" s="97"/>
+      <c r="AV9" s="97"/>
+      <c r="AW9" s="97"/>
+      <c r="AX9" s="98"/>
       <c r="BX9" s="30" t="s">
         <v>30</v>
       </c>
@@ -5200,62 +5205,62 @@
         <v>1</v>
       </c>
       <c r="D13" s="50"/>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91" t="s">
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="92" t="s">
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="92" t="s">
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="81" t="s">
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="96"/>
-      <c r="AW13" s="96"/>
-      <c r="AX13" s="97"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="106"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="107"/>
       <c r="BX13" s="9" t="s">
         <v>30</v>
       </c>
@@ -5304,11 +5309,11 @@
       <c r="AD14" s="52"/>
       <c r="AE14" s="52"/>
       <c r="AF14" s="53"/>
-      <c r="AG14" s="81" t="s">
+      <c r="AG14" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="107" t="s">
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="78" t="s">
         <v>89</v>
       </c>
       <c r="AJ14" s="54"/>
@@ -5374,10 +5379,10 @@
       <c r="AD15" s="52"/>
       <c r="AE15" s="52"/>
       <c r="AF15" s="53"/>
-      <c r="AG15" s="81" t="s">
+      <c r="AG15" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="AH15" s="82"/>
+      <c r="AH15" s="92"/>
       <c r="AI15" s="64" t="s">
         <v>79</v>
       </c>
@@ -5661,62 +5666,62 @@
         <v>1</v>
       </c>
       <c r="D9" s="59"/>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91" t="s">
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="91" t="s">
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="91" t="s">
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="101" t="s">
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="99"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="99"/>
-      <c r="AU9" s="99"/>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="99"/>
-      <c r="AX9" s="100"/>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="115"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="116"/>
+      <c r="AM9" s="116"/>
+      <c r="AN9" s="116"/>
+      <c r="AO9" s="116"/>
+      <c r="AP9" s="116"/>
+      <c r="AQ9" s="116"/>
+      <c r="AR9" s="116"/>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="116"/>
+      <c r="AW9" s="116"/>
+      <c r="AX9" s="117"/>
       <c r="BA9" s="49"/>
       <c r="BX9" s="38" t="s">
         <v>30</v>
@@ -5726,66 +5731,66 @@
       </c>
     </row>
     <row r="10" spans="2:81">
-      <c r="C10" s="112">
+      <c r="C10" s="81">
         <v>2</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114" t="s">
+      <c r="D10" s="82"/>
+      <c r="E10" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="114" t="s">
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="114" t="s">
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="114" t="s">
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="115"/>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="110" t="s">
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="AH10" s="111"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="99"/>
-      <c r="AW10" s="99"/>
-      <c r="AX10" s="100"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="116"/>
+      <c r="AS10" s="116"/>
+      <c r="AT10" s="116"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="116"/>
+      <c r="AW10" s="116"/>
+      <c r="AX10" s="117"/>
       <c r="BX10" s="38" t="s">
         <v>39</v>
       </c>
@@ -5798,62 +5803,62 @@
         <v>3</v>
       </c>
       <c r="D11" s="59"/>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91" t="s">
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="91" t="s">
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="91" t="s">
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="101" t="s">
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="99"/>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="99"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="99"/>
-      <c r="AU11" s="99"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="100"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="115"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="116"/>
+      <c r="AQ11" s="116"/>
+      <c r="AR11" s="116"/>
+      <c r="AS11" s="116"/>
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="116"/>
+      <c r="AV11" s="116"/>
+      <c r="AW11" s="116"/>
+      <c r="AX11" s="117"/>
       <c r="BX11" s="38" t="s">
         <v>39</v>
       </c>
@@ -5893,19 +5898,19 @@
       <c r="W12" s="69"/>
       <c r="X12" s="69"/>
       <c r="Y12" s="70"/>
-      <c r="Z12" s="107" t="s">
+      <c r="Z12" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="108"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="108"/>
-      <c r="AE12" s="108"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="101" t="s">
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="AH12" s="102"/>
+      <c r="AH12" s="112"/>
       <c r="AI12" s="71"/>
       <c r="AJ12" s="72"/>
       <c r="AK12" s="72"/>
@@ -5964,10 +5969,10 @@
       <c r="AD13" s="69"/>
       <c r="AE13" s="69"/>
       <c r="AF13" s="70"/>
-      <c r="AG13" s="101" t="s">
+      <c r="AG13" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="AH13" s="102"/>
+      <c r="AH13" s="112"/>
       <c r="AI13" s="71"/>
       <c r="AJ13" s="72"/>
       <c r="AK13" s="72"/>
@@ -5987,49 +5992,49 @@
     </row>
     <row r="14" spans="2:81">
       <c r="C14" s="60"/>
-      <c r="D14" s="103">
+      <c r="D14" s="74">
         <v>3</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="106" t="s">
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="114" t="s">
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="107" t="s">
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="108"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="108"/>
-      <c r="AE14" s="108"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="110" t="s">
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="AH14" s="111"/>
+      <c r="AH14" s="114"/>
       <c r="AI14" s="71"/>
       <c r="AJ14" s="72"/>
       <c r="AK14" s="72"/>
@@ -6088,10 +6093,10 @@
       <c r="AD15" s="69"/>
       <c r="AE15" s="69"/>
       <c r="AF15" s="70"/>
-      <c r="AG15" s="101" t="s">
+      <c r="AG15" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="AH15" s="102"/>
+      <c r="AH15" s="112"/>
       <c r="AI15" s="71"/>
       <c r="AJ15" s="72"/>
       <c r="AK15" s="72"/>
@@ -6150,10 +6155,10 @@
       <c r="AD16" s="69"/>
       <c r="AE16" s="69"/>
       <c r="AF16" s="70"/>
-      <c r="AG16" s="101" t="s">
+      <c r="AG16" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="AH16" s="102"/>
+      <c r="AH16" s="112"/>
       <c r="AI16" s="71"/>
       <c r="AJ16" s="72"/>
       <c r="AK16" s="72"/>
@@ -6212,10 +6217,10 @@
       <c r="AD17" s="69"/>
       <c r="AE17" s="69"/>
       <c r="AF17" s="70"/>
-      <c r="AG17" s="101" t="s">
+      <c r="AG17" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="AH17" s="102"/>
+      <c r="AH17" s="112"/>
       <c r="AI17" s="71"/>
       <c r="AJ17" s="72"/>
       <c r="AK17" s="72"/>
@@ -6236,13 +6241,13 @@
     <row r="41" ht="18.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:R10"/>
     <mergeCell ref="AI11:AX11"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="Z11:AF11"/>
@@ -6253,14 +6258,14 @@
     <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:Y9"/>
     <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG13:AH13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="1">
